--- a/planilhas/resultado.xlsx
+++ b/planilhas/resultado.xlsx
@@ -19,6 +19,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
@@ -29,6 +52,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -93,7 +117,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -220,10 +244,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -249,6 +273,26 @@
       </c>
       <c r="F1" s="1" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas/resultado.xlsx
+++ b/planilhas/resultado.xlsx
@@ -244,10 +244,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -256,42 +256,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/planilhas/resultado.xlsx
+++ b/planilhas/resultado.xlsx
@@ -17,29 +17,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -244,38 +221,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="11.53"/>
   </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
